--- a/Benchmark 29 septembre.xlsx
+++ b/Benchmark 29 septembre.xlsx
@@ -13,13 +13,11 @@
   </bookViews>
   <sheets>
     <sheet name="Différents" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Similaire" sheetId="2" r:id="rId3"/>
+    <sheet name="Similaire" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Différents!$A$1:$H$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet3!$A$1:$B$37</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Similaire!$N$5:$O$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Similaire!$N$5:$O$41</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>A</t>
   </si>
@@ -1047,7 +1045,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1057,11 +1054,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="676138416"/>
-        <c:axId val="676138960"/>
+        <c:axId val="-1410150656"/>
+        <c:axId val="-1410153376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="676138416"/>
+        <c:axId val="-1410150656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1101,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676138960"/>
+        <c:crossAx val="-1410153376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1112,7 +1109,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="676138960"/>
+        <c:axId val="-1410153376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1164,7 +1161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="676138416"/>
+        <c:crossAx val="-1410150656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2081,11 +2078,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="674326784"/>
-        <c:axId val="674331680"/>
+        <c:axId val="-1410140864"/>
+        <c:axId val="-1410146304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="674326784"/>
+        <c:axId val="-1410140864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2125,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674331680"/>
+        <c:crossAx val="-1410146304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2136,7 +2133,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674331680"/>
+        <c:axId val="-1410146304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2187,7 +2184,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674326784"/>
+        <c:crossAx val="-1410140864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3694,7 +3691,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3745,15 +3742,15 @@
         <v>47</v>
       </c>
       <c r="F2" s="1">
-        <f>C2/B2</f>
+        <f t="shared" ref="F2:F37" si="0">C2/B2</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="G2" s="1">
-        <f>D2/B2</f>
+        <f t="shared" ref="G2:G37" si="1">D2/B2</f>
         <v>0.38235294117647056</v>
       </c>
       <c r="H2" s="1">
-        <f>E2/B2</f>
+        <f t="shared" ref="H2:H37" si="2">E2/B2</f>
         <v>0.69117647058823528</v>
       </c>
       <c r="J2" s="1">
@@ -3782,23 +3779,23 @@
         <v>45</v>
       </c>
       <c r="F3" s="1">
-        <f>C3/B3</f>
+        <f t="shared" si="0"/>
         <v>0.35555555555555557</v>
       </c>
       <c r="G3" s="1">
-        <f>D3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="H3" s="1">
-        <f>E3/B3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <f t="shared" ref="J3:J37" si="0">G3-F3</f>
+        <f t="shared" ref="J3:J37" si="3">G3-F3</f>
         <v>0.57777777777777772</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K37" si="1">H3-G3</f>
+        <f t="shared" ref="K3:K37" si="4">H3-G3</f>
         <v>6.6666666666666652E-2</v>
       </c>
     </row>
@@ -3819,23 +3816,23 @@
         <v>41</v>
       </c>
       <c r="F4" s="1">
-        <f>C4/B4</f>
+        <f t="shared" si="0"/>
         <v>0.39534883720930231</v>
       </c>
       <c r="G4" s="1">
-        <f>D4/B4</f>
+        <f t="shared" si="1"/>
         <v>0.83720930232558144</v>
       </c>
       <c r="H4" s="1">
-        <f>E4/B4</f>
+        <f t="shared" si="2"/>
         <v>0.95348837209302328</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.44186046511627913</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11627906976744184</v>
       </c>
     </row>
@@ -3856,23 +3853,23 @@
         <v>37</v>
       </c>
       <c r="F5" s="1">
-        <f>C5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.15384615384615385</v>
       </c>
       <c r="G5" s="1">
-        <f>D5/B5</f>
+        <f t="shared" si="1"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="H5" s="1">
-        <f>E5/B5</f>
+        <f t="shared" si="2"/>
         <v>0.94871794871794868</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.51282051282051277</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.28205128205128205</v>
       </c>
     </row>
@@ -3893,23 +3890,23 @@
         <v>49</v>
       </c>
       <c r="F6" s="1">
-        <f>C6/B6</f>
+        <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
       <c r="G6" s="1">
-        <f>D6/B6</f>
+        <f t="shared" si="1"/>
         <v>0.5892857142857143</v>
       </c>
       <c r="H6" s="1">
-        <f>E6/B6</f>
+        <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.2857142857142857</v>
       </c>
     </row>
@@ -3930,23 +3927,23 @@
         <v>37</v>
       </c>
       <c r="F7" s="1">
-        <f>C7/B7</f>
+        <f t="shared" si="0"/>
         <v>0.97297297297297303</v>
       </c>
       <c r="G7" s="1">
-        <f>D7/B7</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f>E7/B7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.7027027027026973E-2</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -3967,23 +3964,23 @@
         <v>47</v>
       </c>
       <c r="F8" s="1">
-        <f>C8/B8</f>
+        <f t="shared" si="0"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="G8" s="1">
-        <f>D8/B8</f>
+        <f t="shared" si="1"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="H8" s="1">
-        <f>E8/B8</f>
+        <f t="shared" si="2"/>
         <v>0.81034482758620685</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.41379310344827591</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32758620689655166</v>
       </c>
     </row>
@@ -4004,23 +4001,23 @@
         <v>84</v>
       </c>
       <c r="F9" s="1">
-        <f>C9/B9</f>
+        <f t="shared" si="0"/>
         <v>0.45348837209302323</v>
       </c>
       <c r="G9" s="1">
-        <f>D9/B9</f>
+        <f t="shared" si="1"/>
         <v>0.84883720930232553</v>
       </c>
       <c r="H9" s="1">
-        <f>E9/B9</f>
+        <f t="shared" si="2"/>
         <v>0.97674418604651159</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.39534883720930231</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12790697674418605</v>
       </c>
     </row>
@@ -4041,23 +4038,23 @@
         <v>20</v>
       </c>
       <c r="F10" s="1">
-        <f>C10/B10</f>
+        <f t="shared" si="0"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="G10" s="1">
-        <f>D10/B10</f>
+        <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="H10" s="1">
-        <f>E10/B10</f>
+        <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.22222222222222224</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.27777777777777779</v>
       </c>
     </row>
@@ -4078,23 +4075,23 @@
         <v>41</v>
       </c>
       <c r="F11" s="1">
-        <f>C11/B11</f>
+        <f t="shared" si="0"/>
         <v>0.1875</v>
       </c>
       <c r="G11" s="1">
-        <f>D11/B11</f>
+        <f t="shared" si="1"/>
         <v>0.60416666666666663</v>
       </c>
       <c r="H11" s="1">
-        <f>E11/B11</f>
+        <f t="shared" si="2"/>
         <v>0.85416666666666663</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.41666666666666663</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4115,23 +4112,23 @@
         <v>55</v>
       </c>
       <c r="F12" s="1">
-        <f>C12/B12</f>
+        <f t="shared" si="0"/>
         <v>0.23076923076923078</v>
       </c>
       <c r="G12" s="1">
-        <f>D12/B12</f>
+        <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
       <c r="H12" s="1">
-        <f>E12/B12</f>
+        <f t="shared" si="2"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.3692307692307692</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24615384615384617</v>
       </c>
     </row>
@@ -4152,23 +4149,23 @@
         <v>71</v>
       </c>
       <c r="F13" s="1">
-        <f>C13/B13</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>D13/B13</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H13" s="1">
-        <f>E13/B13</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,23 +4186,23 @@
         <v>71</v>
       </c>
       <c r="F14" s="1">
-        <f>C14/B14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f>D14/B14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H14" s="1">
-        <f>E14/B14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4226,23 +4223,23 @@
         <v>45</v>
       </c>
       <c r="F15" s="1">
-        <f>C15/B15</f>
+        <f t="shared" si="0"/>
         <v>0.10526315789473684</v>
       </c>
       <c r="G15" s="1">
-        <f>D15/B15</f>
+        <f t="shared" si="1"/>
         <v>0.40350877192982454</v>
       </c>
       <c r="H15" s="1">
-        <f>E15/B15</f>
+        <f t="shared" si="2"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2982456140350877</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38596491228070179</v>
       </c>
     </row>
@@ -4263,23 +4260,23 @@
         <v>68</v>
       </c>
       <c r="F16" s="1">
-        <f>C16/B16</f>
+        <f t="shared" si="0"/>
         <v>7.792207792207792E-2</v>
       </c>
       <c r="G16" s="1">
-        <f>D16/B16</f>
+        <f t="shared" si="1"/>
         <v>0.68831168831168832</v>
       </c>
       <c r="H16" s="1">
-        <f>E16/B16</f>
+        <f t="shared" si="2"/>
         <v>0.88311688311688308</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.61038961038961037</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.19480519480519476</v>
       </c>
     </row>
@@ -4300,23 +4297,23 @@
         <v>74</v>
       </c>
       <c r="F17" s="1">
-        <f>C17/B17</f>
+        <f t="shared" si="0"/>
         <v>0.84</v>
       </c>
       <c r="G17" s="1">
-        <f>D17/B17</f>
+        <f t="shared" si="1"/>
         <v>0.94666666666666666</v>
       </c>
       <c r="H17" s="1">
-        <f>E17/B17</f>
+        <f t="shared" si="2"/>
         <v>0.98666666666666669</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.10666666666666669</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
@@ -4337,23 +4334,23 @@
         <v>54</v>
       </c>
       <c r="F18" s="1">
-        <f>C18/B18</f>
+        <f t="shared" si="0"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="G18" s="1">
-        <f>D18/B18</f>
+        <f t="shared" si="1"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="H18" s="1">
-        <f>E18/B18</f>
+        <f t="shared" si="2"/>
         <v>0.94736842105263153</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.1578947368421052</v>
       </c>
     </row>
@@ -4374,23 +4371,23 @@
         <v>83</v>
       </c>
       <c r="F19" s="1">
-        <f>C19/B19</f>
+        <f t="shared" si="0"/>
         <v>0.67469879518072284</v>
       </c>
       <c r="G19" s="1">
-        <f>D19/B19</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H19" s="1">
-        <f>E19/B19</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.32530120481927716</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4411,23 +4408,23 @@
         <v>42</v>
       </c>
       <c r="F20" s="1">
-        <f>C20/B20</f>
+        <f t="shared" si="0"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="G20" s="1">
-        <f>D20/B20</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H20" s="1">
-        <f>E20/B20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.64285714285714279</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4448,23 +4445,23 @@
         <v>43</v>
       </c>
       <c r="F21" s="1">
-        <f>C21/B21</f>
+        <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
       <c r="G21" s="1">
-        <f>D21/B21</f>
+        <f t="shared" si="1"/>
         <v>0.49090909090909091</v>
       </c>
       <c r="H21" s="1">
-        <f>E21/B21</f>
+        <f t="shared" si="2"/>
         <v>0.78181818181818186</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.32727272727272727</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.29090909090909095</v>
       </c>
     </row>
@@ -4485,23 +4482,23 @@
         <v>57</v>
       </c>
       <c r="F22" s="1">
-        <f>C22/B22</f>
+        <f t="shared" si="0"/>
         <v>0.15151515151515152</v>
       </c>
       <c r="G22" s="1">
-        <f>D22/B22</f>
+        <f t="shared" si="1"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="H22" s="1">
-        <f>E22/B22</f>
+        <f t="shared" si="2"/>
         <v>0.86363636363636365</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.48484848484848486</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22727272727272729</v>
       </c>
     </row>
@@ -4522,23 +4519,23 @@
         <v>66</v>
       </c>
       <c r="F23" s="1">
-        <f>C23/B23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>D23/B23</f>
+        <f t="shared" si="1"/>
         <v>0.72602739726027399</v>
       </c>
       <c r="H23" s="1">
-        <f>E23/B23</f>
+        <f t="shared" si="2"/>
         <v>0.90410958904109584</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.72602739726027399</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.17808219178082185</v>
       </c>
     </row>
@@ -4559,23 +4556,23 @@
         <v>49</v>
       </c>
       <c r="F24" s="1">
-        <f>C24/B24</f>
+        <f t="shared" si="0"/>
         <v>0.11666666666666667</v>
       </c>
       <c r="G24" s="1">
-        <f>D24/B24</f>
+        <f t="shared" si="1"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="H24" s="1">
-        <f>E24/B24</f>
+        <f t="shared" si="2"/>
         <v>0.81666666666666665</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.35</v>
       </c>
     </row>
@@ -4596,23 +4593,23 @@
         <v>58</v>
       </c>
       <c r="F25" s="1">
-        <f>C25/B25</f>
+        <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
       <c r="G25" s="1">
-        <f>D25/B25</f>
+        <f t="shared" si="1"/>
         <v>0.61290322580645162</v>
       </c>
       <c r="H25" s="1">
-        <f>E25/B25</f>
+        <f t="shared" si="2"/>
         <v>0.93548387096774188</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.54838709677419351</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.32258064516129026</v>
       </c>
     </row>
@@ -4633,23 +4630,23 @@
         <v>44</v>
       </c>
       <c r="F26" s="1">
-        <f>C26/B26</f>
+        <f t="shared" si="0"/>
         <v>1.5625E-2</v>
       </c>
       <c r="G26" s="1">
-        <f>D26/B26</f>
+        <f t="shared" si="1"/>
         <v>0.328125</v>
       </c>
       <c r="H26" s="1">
-        <f>E26/B26</f>
+        <f t="shared" si="2"/>
         <v>0.6875</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.3125</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.359375</v>
       </c>
     </row>
@@ -4670,23 +4667,23 @@
         <v>44</v>
       </c>
       <c r="F27" s="1">
-        <f>C27/B27</f>
+        <f t="shared" si="0"/>
         <v>0.35416666666666669</v>
       </c>
       <c r="G27" s="1">
-        <f>D27/B27</f>
+        <f t="shared" si="1"/>
         <v>0.8125</v>
       </c>
       <c r="H27" s="1">
-        <f>E27/B27</f>
+        <f t="shared" si="2"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10416666666666663</v>
       </c>
     </row>
@@ -4707,23 +4704,23 @@
         <v>40</v>
       </c>
       <c r="F28" s="1">
-        <f>C28/B28</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
       <c r="G28" s="1">
-        <f>D28/B28</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H28" s="1">
-        <f>E28/B28</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4744,23 +4741,23 @@
         <v>62</v>
       </c>
       <c r="F29" s="1">
-        <f>C29/B29</f>
+        <f t="shared" si="0"/>
         <v>0.15942028985507245</v>
       </c>
       <c r="G29" s="1">
-        <f>D29/B29</f>
+        <f t="shared" si="1"/>
         <v>0.6376811594202898</v>
       </c>
       <c r="H29" s="1">
-        <f>E29/B29</f>
+        <f t="shared" si="2"/>
         <v>0.89855072463768115</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.47826086956521735</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26086956521739135</v>
       </c>
     </row>
@@ -4781,23 +4778,23 @@
         <v>61</v>
       </c>
       <c r="F30" s="1">
-        <f>C30/B30</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444448E-2</v>
       </c>
       <c r="G30" s="1">
-        <f>D30/B30</f>
+        <f t="shared" si="1"/>
         <v>0.47222222222222221</v>
       </c>
       <c r="H30" s="1">
-        <f>E30/B30</f>
+        <f t="shared" si="2"/>
         <v>0.84722222222222221</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.40277777777777779</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
     </row>
@@ -4818,23 +4815,23 @@
         <v>39</v>
       </c>
       <c r="F31" s="1">
-        <f>C31/B31</f>
+        <f t="shared" si="0"/>
         <v>0.94871794871794868</v>
       </c>
       <c r="G31" s="1">
-        <f>D31/B31</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H31" s="1">
-        <f>E31/B31</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>5.1282051282051322E-2</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4855,23 +4852,23 @@
         <v>25</v>
       </c>
       <c r="F32" s="1">
-        <f>C32/B32</f>
+        <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="G32" s="1">
-        <f>D32/B32</f>
+        <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="H32" s="1">
-        <f>E32/B32</f>
+        <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.28888888888888892</v>
       </c>
     </row>
@@ -4892,23 +4889,23 @@
         <v>79</v>
       </c>
       <c r="F33" s="1">
-        <f>C33/B33</f>
+        <f t="shared" si="0"/>
         <v>0.67088607594936711</v>
       </c>
       <c r="G33" s="1">
-        <f>D33/B33</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H33" s="1">
-        <f>E33/B33</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.32911392405063289</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4929,23 +4926,23 @@
         <v>50</v>
       </c>
       <c r="F34" s="1">
-        <f>C34/B34</f>
+        <f t="shared" si="0"/>
         <v>0.92</v>
       </c>
       <c r="G34" s="1">
-        <f>D34/B34</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H34" s="1">
-        <f>E34/B34</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4966,23 +4963,23 @@
         <v>40</v>
       </c>
       <c r="F35" s="1">
-        <f>C35/B35</f>
+        <f t="shared" si="0"/>
         <v>0.48780487804878048</v>
       </c>
       <c r="G35" s="1">
-        <f>D35/B35</f>
+        <f t="shared" si="1"/>
         <v>0.85365853658536583</v>
       </c>
       <c r="H35" s="1">
-        <f>E35/B35</f>
+        <f t="shared" si="2"/>
         <v>0.97560975609756095</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.36585365853658536</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12195121951219512</v>
       </c>
     </row>
@@ -5003,23 +5000,23 @@
         <v>54</v>
       </c>
       <c r="F36" s="1">
-        <f>C36/B36</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G36" s="1">
-        <f>D36/B36</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H36" s="1">
-        <f>E36/B36</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5040,23 +5037,23 @@
         <v>34</v>
       </c>
       <c r="F37" s="1">
-        <f>C37/B37</f>
+        <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
       <c r="G37" s="1">
-        <f>D37/B37</f>
+        <f t="shared" si="1"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="H37" s="1">
-        <f>E37/B37</f>
+        <f t="shared" si="2"/>
         <v>0.75555555555555554</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.48888888888888887</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.22222222222222221</v>
       </c>
     </row>
@@ -5073,322 +5070,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>8</v>
-      </c>
-      <c r="B2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>6</v>
-      </c>
-      <c r="B21">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B31">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B35">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>7</v>
-      </c>
-      <c r="B37">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:B37"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B2:B37"/>
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
